--- a/data/CDC.xlsx
+++ b/data/CDC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS\Data\covid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\covidQA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E123E8-73F2-4C7F-AB3B-DB50D247A7E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64686190-746C-4F5B-ACD6-742B32908A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11868" yWindow="5772" windowWidth="21000" windowHeight="10872" xr2:uid="{C9DB26B1-B960-944C-B948-2AA9B2AD07F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{C9DB26B1-B960-944C-B948-2AA9B2AD07F2}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet101" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="229">
   <si>
     <t>Context</t>
   </si>
@@ -352,12 +352,1216 @@
 Handle your lenses over a surface that has been cleaned and disinfected.
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">What is the risk of my child becoming sick with COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on available evidence, children do not appear to be at higher risk for COVID-19 than adults. While some children
+and infants have been sick with COVID-19, adults make up most of the known cases to date. You can learn more about
+who is at higher risk for severe illness from COVID-19 at People who are at higher risk for severe illness.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I protect my child from COVID-19 infection?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can encourage your child to help stop the spread of COVID-19 by teaching them to do the same things everyone
+should do to stay healthy.
+Avoid close contact with people who are sick.
+Stay home when you are sick, except to get medical care.
+Cover your coughs and sneezes with a tissue and throw the tissue in the trash.
+Wash your hands often with soap and water for at least 20 seconds, especially after blowing your nose, coughing,
+or sneezing; going to the bathroom; and before eating or preparing food.
+If soap and water are not readily available, use an alcohol-based hand sanitizer with at least 60% alcohol. Always
+wash hands with soap and water if hands are visibly dirty.
+Clean and disinfect frequently touched surfaces and objects (e.g., tables, countertops, light switches, doorknobs,
+and cabinet handles).
+Launder items, including washable plush toys, as appropriate and in accordance with the manufacturer’s
+instructions. If possible, launder items using the warmest appropriate water setting for the items and dry items
+completely. Dirty laundry from an ill person can be washed with other people’s items.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the symptoms of COVID-19 di erent in children than in adults?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. The symptoms of COVID-19 are similar in children and adults. However, children with con rmed COVID-19 have
+generally presented with mild symptoms. Reported symptoms in children include cold-like symptoms, such as fever,
+runny nose, and cough. Vomiting and diarrhea have also been reported. It’s not known yet whether some children may be at higher risk for severe illness, for example, children with underlying medical conditions and special
+healthcare needs. There is much more to be learned about how the disease impacts children.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should children wear masks?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC recommends that everyone 2 years and older wear a cloth face covering that covers their nose and mouth when
+they are out in the community. Cloth face coverings should NOT be put on babies or children younger than 2 because
+of the danger of su ocation. Children younger than 2 years of age are listed as an exception as well as anyone who
+has trouble breathing or is unconscious, incapacitated, or otherwise unable to remove the face covering without
+assistance.
+Wearing cloth face coverings is a public health measure people should take to reduce the spread of COVID-19 in
+addition to (not instead of) social distancing, frequent hand cleaning ,and other everyday preventive actions. A cloth
+face covering is not intended to protect the wearer but may prevent the spread of virus from the wearer to others.
+This would be especially important if someone is infected but does not have symptoms. Medical face masks and N95
+respirators are still reserved for healthcare personnel and other rst responders, as recommended by current CDC
+guidance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I prepare my children in case of COVID-19 outbreak in our community?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outbreaks can be stressful for adults and children. Talk with your children about the outbreak, try to stay calm, and
+reassure them that they are safe. If appropriate, explain to them that most illness from COVID-19 seems to be
+mild. Children respond di erently to stressful situations than adults. CDC o ers resources to help talk with children
+about COVID-19.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What steps should parents take to protect children during a community outbreak?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a new virus and we are still learning about it, but so far, there does not seem to be a lot of illness in children.
+Most illness, including serious illness, is happening in adults of working age and older adults. However, children do get
+the virus and become ill. Many schools across the country have announced dismissals for temporary periods. Keep
+track of school dismissals in your community. Read or watch local media sources that report school dismissals. If
+schools are dismissed temporarily, use alternative childcare arrangements, if needed.
+If your child/children become sick with COVID-19, notify their childcare facility or school. Talk with teachers about
+classroom assignments and activities they can do from home to keep up with their schoolwork.
+Discourage children and teens from gathering in other public places while school is dismissed to help slow the spread
+of COVID-19 in the community.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is multisystem in ammatory syndrome in children (MIS-C) and who is at risk?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC is working with state and local health departments to investigate reports of multisystem in ammatory syndrome
+in children (MIS-C) associated with COVID-19 and gather more information as quickly as possible about how common
+it is and who is at risk. As new information becomes available, we will continue to provide information for parents and
+caregivers as well as healthcare and public health professionals. MIS-C has been described as in ammation (swelling)
+across multiple body systems, potentially including the heart, lungs, kidneys, brain, skin, eyes, and gastrointestinal
+organs. Signs and symptoms of MIS-C include fever and various symptoms such as abdominal pain, vomiting,
+diarrhea, neck pain, rash, and feeling tired.
+If your child has any of these symptoms, other symptoms of COVID-19, or other concerning signs, contact your
+pediatrician. If your child is showing any emergency warning signs including trouble breathing, persistent pain or
+pressure in the chest, new confusion, inability to wake or stay awake, bluish lips or face, severe abdominal pain, or
+other concerning signs, seek emergency care right away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While school’s out, can my child hang out with their friends?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The key to slowing the spread of COVID-19 is to practice social distancing. While school is out, children should not
+have in-person playdates with children from other households. If children are playing outside their own homes, it is
+essential that they remain 6 feet from anyone who is not in their own household.
+To help children maintain social connections while social distancing, help your children have supervised phone calls
+or video chats with their friends.
+Make sure children practice everyday preventive behaviors, such as washing their hands often with soap and
+water. Remember, if children meet outside of school in groups, it can put everyone at risk.
+Revise spring break plans if they included non-essential travel.
+Information about COVID-19 in children is somewhat limited, but current data suggest children with COVID-19 may
+have only mild symptoms. However, they can still pass this virus onto others who may be at higher risk,
+including older adults and people who have serious underlying medical conditions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While school’s out, how can I help my child continue learning?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay in touch with your child’s school.
+Many schools are offering lessons online (virtual learning). Review assignments from the school, and help your
+child establish a reasonable pace for completing the work. You may need to assist your child with turning on
+devices, reading instructions, and typing answers.
+Communicate challenges to your school. If you face technology or connectivity issues, or if your child is having
+a hard time completing assignments, let the school know.
+Create a schedule and routine for learning at home, but remain exible.
+Have consistent bedtimes, and get up at the same time, Monday through Friday.
+Structure the day for learning, free time, healthy meals and snacks, and physical activity.
+Allow exibility in the schedule—it’s okay to adapt based on your day.
+Consider the needs and adjustment required for your child’s age group.
+The transition to being at home will be di erent for preschoolers, K-5, middle school students, and high school
+students. Talk to your child about expectations and how they are adjusting to being at home versus at school.
+Consider ways your child can stay connected with their friends without spending time in person.
+Look for ways to make learning fun.
+Have hands-on activities, like puzzles, painting, drawing, and making things.
+Independent play can also be used in place of structured learning. Encourage children to build a fort from
+sheets or practice counting by stacking blocks.
+Practice handwriting and grammar by writing letters to family members. This is a great way to connect and
+limit face-to-face contact.
+Start a journal with your child to document this time and discuss the shared experience.
+Use audiobooks or see if your local library is hosting virtual or live-streamed reading events.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While school’s out, will kids have access to meals?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check with your school on plans to continue meal services during the school dismissal. Many schools are keeping
+school facilities open to allow families to pick up meals or are providing grab-and-go meals at a central location.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While school’s out, how can I keep my family healthy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watch your child for any signs of illness. If you see any sign of illness consistent with symptoms of COVID-19, particularly fever, cough, or shortness of breath, call your healthcare provider and keep your child at home and away from others as much as possible.Follow CDC’s guidance on “What to do if you are sick.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watch for signs of stress in your child.
+Some common changes to watch for include excessive worry or sadness, unhealthy eating or sleeping habits,
+and di culty with attention and concentration. For more information, see the “For Parents” section on CDC’s
+website, Manage Anxiety and Stress.
+Take time to talk with your child or teen about the COVID-19 outbreak. Answer questions and share
+facts about COVID-19 in a way that your child or teen can understand.
+Go to CDC’s Helping Children Cope with Emergencies or Talking with Children About COVID-19 for more
+information.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teach and reinforce everyday preventive actions.
+Parents and caretakers play an important role in teaching children to wash their hands. Explain that hand
+washing can keep them healthy and stop the virus from spreading to others.
+Be a good role model—if you wash your hands often, they’re more likely to do the same.
+Make handwashing a family activity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help your child stay active.
+Encourage your child to play outdoors—it’s great for physical and mental health. Take a walk with your child
+or go on a bike ride.
+Use indoor activity breaks (stretch breaks, dance breaks) throughout the day to help your child stay healthy
+and focused.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help your child stay socially connected.
+Reach out to friends and family via phone or video chats.
+Write cards or letters to family members they may not be able to visit.
+Some schools and non-pro ts, such as the Collaborative for Academic, Social, and Emotional Learning 
+and The Yale Center for Emotional Intelligence  , have resources for social and emotional learning. Check to
+see if your school has tips and guidelines to help support social and emotional needs of your child.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While school’s out, limit time with older adults, including relatives, and people with chronic medical conditions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Older adults and people who have serious underlying medical conditions are at highest risk of getting sick from
+COVID-19.
+If others in your home are at particularly high risk for severe illness from COVID-19, consider extra precautions to
+separate your child from those people.
+If you are unable to stay home with your child during school dismissals, carefully consider who might be best
+positioned to provide childcare. If someone at higher risk for COVID-19 will be providing care (older adult, such as a
+grandparent or someone with a serious underlying medical condition), limit your children’s contact with other
+people.
+Consider postponing visits or trip to see older family members and grandparents. Connect virtually or by writing
+letters and sending via mail.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is my child with an underlying medical condition or special healthcare need at higher risk for severe illness from
+COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children with complex, chronic medical conditions, including children with physical, developmental, behavioral, or
+emotional di erences, can have special healthcare needs. It’s not known yet whether all of these children are at higher
+risk for severe illness from COVID-19. Although most COVID-19 cases in children are not severe, serious illness that needs to be treated at the hospital still happens. Some data on children reported that the majority who needed hospitalization for COVID-19 had at least one underlying medical condition. The most common underlying conditions reported among children with COVID-19 include chronic lung disease (including asthma), heart disease, and conditions that weaken the immune system. This information suggests that children with these underlying medical conditions may be at risk for more severe illness from COVID-19. More data are needed to learn which underlying or complex medical conditions may put children at increased risk. CDC is monitoring new information as it becomes available and will provide updates as needed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What additional steps should families that have a child with an underlying medical condition or special health
+care need take?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition to following the recommendations to prevent getting sick and running essential errands, families should
+take extra steps recommended for persons with higher risk of severe COVID-19 illness and steps outlined for those
+with potential COVID-19 exposure or con rmed illness.
+Identify potential alternative caregivers, if you or other regular caregivers become sick and are unable to care for
+your child. If possible, these alternative caregivers would not be at higher risk of severe illness from COVID-19
+themselves.
+Try to have at least one month of medication and medical supplies on hand. Some health plans allow for a 90-day
+supply of prescription medications. Consider discussing this option with your child’s healthcare provider.
+Review any care plans for your child, such as an asthma action plan, and make sure caregivers and backup
+caregivers are familiar with these plans.
+If you do not have care plans or an emergency notebook, try to make them. They typically include important
+information about your child’s medical conditions, how to manage those conditions, how to get in touch with your
+child’s doctors, allergies, information on medications (names, dosages, and administration instructions),
+preferences (food and other) or special needs, daily routines and activities, friends, and details about routines that
+are important to support behavioral and emotional health.
+Learn if your child’s healthcare providers, including doctors and therapists, have new ways to be contacted or new
+ways of providing appointments. If they o er telemedicine visits, nd out how those are arranged and any
+additional information you need.
+If your child receives any support care services in the home that need to be continued, make plans for what you will
+do if those direct care providers get sick, or if persons in your household are sick.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What can I do if my child has di culties adjusting to new routines and following recommendations?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helping children understand and follow recommendations, like social distancing and wearing cloth face coverings, can
+be challenging if your child has intellectual disabilities, sensory issues, or other special healthcare needs.
+Keeping children at home and sheltering in place can lower stress created by social distancing and cloth face
+covering recommendations. Reach out to others for help in running essential errands.
+Behavioral techniques can be used to address behavioral challenges and to develop new routines. These include
+social stories, video modeling, picture schedules, and visual cues. Try rewarding your child in small ways with his or
+her favorite non-food treat or activities to help switch routines and to follow recommendations.
+Many of the organizations you turn to for information and support around your child’s complex, chronic medical
+condition may have information on their websites to help families address issues related to COVID-19.
+Your child’s therapist(s) and/or teachers may also have resources to help successfully introduce new routines to
+your child.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can my family cope with the added stress?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supporting children with special healthcare needs can put additional demands and stress on families, especially
+during emergency situations. You have likely found ways to manage the stress and challenges unique to your family’s
+situation. It is important to continue your family’s coping methods, including reaching out to other family members,
+friends, support groups, and organizations that have been helpful in the past. If you, or someone you care about, are feeling overwhelmed with emotions like sadness, depression, or anxiety, or feel
+like you want to harm yourself or others:
+Call 911
+Visit the Disaster Distress Helpline  , call 1-800-985-5990, or text TalkWithUs to 66746
+Visit the National Domestic Violence Hotline  or call 1-800-799-7233 and TTY 1-800-787-3224
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What if my child or someone else in the home is sick with symptoms of COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your child with special healthcare needs becomes sick with symptoms of COVID-19, contact your child’s healthcare
+provider. If your child has new or worsening emergency warning signs, such as trouble breathing, pain or pressure in
+the chest, confusion or inability to wake them up, or bluish lips or face, call 911. If you think your child may have
+COVID-19, notify the operator so that rst responders may be appropriately prepared to protect themselves and
+others.
+Notify your child’s healthcare provider if someone else in your house becomes sick with COVID-19, so they can provide
+any advice speci c for your child.
+See additional information if someone in the home is sick with COVID-19 or suspected of having COVID-19.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What if my child’s symptoms of their underlying medical condition or complex, chronic medical condition get
+worse?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call your child’s healthcare provider if you have any concerns about your child’s medical conditions. If you need
+emergency help, call 911.
+Emergency departments have infection prevention plans to protect you and your child from getting COVID-19 if
+your child needs care for medical conditions not related to COVID-19. Do not delay getting emergency care for your
+child’s underlying condition or complex medical condition because you are afraid of getting exposed to COVID-19
+when visiting the healthcare setting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What if my child needs to go to the hospital?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your child’s healthcare provider tells you to go to the hospital for any health problem, including COVID-19:
+Ask the healthcare provider to let the hospital know you are coming and to share the important information the
+hospital will need to know to care for your child.
+Visiting policies may have changed due to COVID-19. If your child’s hospital policy does not allow an adult to stay
+with a child, ask your child’s healthcare provider for a statement explaining your child’s need for a familiar adult to
+be present.
+Bring your care plans/emergency notebook with you along with paper and pen to write down questions you have
+during your time at the hospital.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can my family and I prepare for COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a household plan of action to help protect your health and the health of those you care about in the event of
+an outbreak of COVID-19 in your community:
+Talk with the people who need to be included in your plan, and discuss what to do if a COVID-19 outbreak occurs in
+your community.
+Plan ways to care for those who might be at greater risk for serious complications, particularly older adults and
+those with severe chronic medical conditions like heart, lung or kidney disease.
+Make sure they have access to several weeks of medications and supplies in case you need to stay home for
+prolonged periods of time.
+Get to know your neighbors andconnected.
+nd out if your neighborhood has a website or social media page to stay
+Create a list of local organizations that you and your household can contact in the event you need access to
+information, healthcare services, support, and resources.
+Create an emergency contact list of family, friends, neighbors, carpool drivers, health care providers, teachers,
+employers, the local public health department, and other community resources.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What steps can my family take to reduce our risk of getting COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice everyday preventive actions to help reduce your risk of getting sick and remind everyone in your home to do
+the same. These actions are especially important for older adults and people who have severe chronic medical
+conditions:
+Avoid close contact with people who are sick. Stay home when you are sick, except to get medical care.
+Cover your coughs and sneezes with a tissue and throw the tissue in the trash.
+Wash your hands often with soap and water for at least 20 seconds, especially after blowing your nose, coughing,
+or sneezing; going to the bathroom; and before eating or preparing food.
+If soap and water are not readily available, use an alcohol-based hand sanitizer with at least 60% alcohol. Always
+wash hands with soap and water if hands are visibly dirty.
+Clean and disinfect frequently touched surfaces and objects (e.g., tables, countertops, light switches, doorknobs,
+and cabinet handles).
+Launder items, including washable plush toys, as appropriate and in accordance with the manufacturer’s
+instructions. If possible, launder items using the warmest appropriate water setting for the items and dry items
+completely. Dirty laundry from an ill person can be washed with other people’s items.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What should I do if someone in my house gets sick with COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When to Seek Emergency Medical Attention
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look for emergency warning signs* for COVID-19. If someone is showing any of these signs, seek emergency
+medical care immediately
+Trouble breathing
+Persistent pain or pressure in the chest
+New confusion
+Inability to wake or stay awake
+Bluish lips or face
+*This list is not all possible symptoms. Please call your medical provider for any other symptoms that are severe
+or concerning to you.
+Call 911 or call ahead to your local emergency facility: Notify the operator that you are seeking care for someone
+who has or may have COVID-19.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most people who get COVID-19 will be able to recover at home. CDC has directions for people who are recovering at
+home and their caregivers, including:
+Stay home when you are sick, except to get medical care. Use a separate room and bathroom for sick household members (if possible).
+Wash your hands often with soap and water for at least 20 seconds, especially after blowing your nose, coughing,
+or sneezing; going to the bathroom; and before eating or preparing food.
+If soap and water are not readily available, use an alcohol-based hand sanitizer with at least 60% alcohol. Always
+wash hands with soap and water if hands are visibly dirty.
+Provide your sick household member with clean disposable facemasks to wear at home, if available, to help
+prevent spreading COVID-19 to others.
+Clean the sick room and bathroom, as needed, to avoid unnecessary contact with the sick person.
+Avoid sharing personal items like utensils, food, and drinks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I prepare in case my child’s school, child care facility, or university is dismissed?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk to the school or facility about their emergency operations plan. Understand the plan for continuing education and
+social services (such as student meal programs) during school dismissals. If your child attends a college or university,
+encourage them to learn about the school’s plan for a COVID-19 outbreak.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I prepare for COVID-19 at work?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan for potential changes at your workplace. Talk to your employer about their emergency operations plan, including
+sick-leave policies and telework options. Learn how businesses and employers can plan for and respond to COVID-19.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should I use soap and water or a hand sanitizer to protect against COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handwashing is one of the best ways to protect yourself and your family from getting sick. Wash your hands often
+with soap and water for at least 20 seconds, especially after blowing your nose, coughing, or sneezing; going to the
+bathroom; and before eating or preparing food. If soap and water are not readily available, use an alcohol-based hand
+sanitizer with at least 60% alcohol.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What cleaning products should I use to protect against COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and disinfect frequently touched surfaces such as tables, doorknobs, light switches, countertops, handles, desks,
+phones, keyboards, toilets, faucets, and sinks. If surfaces are dirty, clean them using detergent or soap and water
+prior to disinfection. To disinfect, most common EPA-registered household disinfectants will work. See CDC’s
+recommendations for household cleaning and disinfection.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should I make my own hand sanitizer if I can’t nd it in the stores?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC recommends handwashing with soap and water for at least 20 seconds or, using alcohol-based hand sanitizer
+with at least 60% alcohol when soap and water are not available. These actions are part of everyday preventive
+actions individuals can take to slow the spread of respiratory diseases like COVID-19.
+When washing hands, you can use plain soap or antibacterial soap. Plain soap is as eat removing germs.
+ective as antibacterial soap
+If soap and water are not readily available, you can use an FDA-approved alcohol-based hand sanitizer that
+contains at least 60% alcohol. You can tell if the sanitizer contains at least 60% alcohol by looking at the product
+label. To be e ective against killing some types of germs, hand sanitizers need to have a strength of at least 60%
+alcohol and be used when hands are not visibly dirty or greasy.
+Do not rely on “Do It Yourself” or “DIY” recipes based solely on essential oils or formulated without correct
+compounding practices.
+Do not use hand sanitizer to disinfect frequently touched surfaces and objects. See CDC’s information for
+cleaning and sanitizing your home.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What should I do if there is an outbreak in my community?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During an outbreak, stay calm and put your preparedness plan to work. Follow the steps below: Stay home if you are sick. Keep away from people who are sick. Limit close contact with others as much as possible
+(about 6 feet).
+Put your household plan into action.
+Stay informed about the local COVID-19 situation. Be aware of temporary school dismissals in your area, as this
+may a ect your household’s daily routine. Continue practicing everyday preventive actions. Cover coughs and sneezes with a tissue and wash your hands
+often with soap and water for at least 20 seconds. If soap and water are not available, use a hand sanitizer that
+contains 60% alcohol. Clean frequently touched surfaces and objects daily using a regular household detergent and
+water.  Notify your workplace as soon as possible if your regular work schedule changes. Ask to work from home or take
+leave if you or someone in your household gets sick with COVID-19 symptoms, or if your child’s school is dismissed
+temporarily. Learn how businesses and employers can plan for and respond to COVID-19.
+Stay in touch with others by phone or email. If you have a chronic medical condition and live alone, ask family,
+friends, and health care providers to check on you during an outbreak. Stay in touch with family and friends,
+especially those at increased risk of developing severe illness, such as older adults and people with severe chronic
+medical conditions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will schools be dismissed if there is an outbreak in my community?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depending on the situation, public health o cials may recommend community actions to reduce exposures to COVID-
+19, such as school dismissals. Read or watch local media sources that report school dismissals or and watch for
+communication from your child’s school. If schools are dismissed temporarily, discourage students and sta from
+gathering or socializing anywhere, like at a friend’s house, a favorite restaurant, or the local shopping mall.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should I go to work if there is an outbreak in my community?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow the advice of your local health o cials. Stay home if you can. Talk to your employer to discuss working from
+home, taking leave if you or someone in your household gets sick with COVID-19 symptoms, or if your child’s school is
+dismissed temporarily. Employers should be aware that more employees may need to stay at home to care for sick
+children or other sick family members than is usual in case of a community outbreak.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will businesses and schools close or stay closed in my community and for how long? Will there be a “stay at
+home” or “shelter in place” order in my community?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC makes recommendations, shares information, and provides guidance to help slow down the spread of COVID-19
+in the U.S. including guidance for schools and businesses. CDC regularly shares information and provides assistance to
+state, local, territorial, and tribal health authorities. These local authorities are responsible for making decisions
+including “stay at home” or “shelter in place.” What is included in these orders and how they are implemented are also
+decided by local authorities. These decisions may also depend on many factors such as how the virus is spreading in a
+certain community.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can CDC tell me or my employer when it is safe for me to go back to work/school after recovering from or being
+exposed to COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC cannot address the policies of any business or organization. CDC shares recommendations based on the best
+available science to help people make decisions that improve their health and safety. Employers, schools, and
+organizations may decide to visibly screen for symptoms or perform on-site symptom checks. If your employer, school, or organization requires you to present documentation regarding COVID-19 before returning
+to work or school (for example, proof of a negative COVID-19 lab test, if a test was performed, contact your healthcare
+provider to ask if he or she would be able to provide a form of documentation for you. Documentation of self-isolation
+and self-quarantine may not be possible.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the symptoms and complications that COVID-19 can cause?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People with COVID-19 have had a wide range of symptoms reported – ranging from mild symptoms to severe illness.
+Symptoms may appear 2-14 days after exposure to the virus. People with these symptoms may have COVID-19:
+Cough
+Shortness of breath or di culty breathing
+Fever
+Chills
+Muscle pain
+Sore throat
+New loss of taste or smell
+Children have similar symptoms to adults and generally have mild illness.
+This list is not all inclusive. Other less common symptoms have been reported, including gastrointestinal symptoms
+like nausea, vomiting, or diarrhea.
+Read about COVID-19 Symptoms.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it possible to have the flu and COVID-19 at the same time?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is possible to test positive for flu (as well as other respiratory pathogens) and the virus that causes COVID-19 at the
+same time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should I be tested for COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not everyone needs to be tested for COVID-19. For information about testing, see Testing for COVID-19.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where can I get tested for COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The process and locations for testing vary from place to place. Contact your state, local, tribal, or territorial
+department for more information, or reach out to a medical provider. State and local public health departments have
+received tests from CDC while medical providers are getting tests developed by commercial manufacturers. While
+supplies of these tests are increasing, it may still be di cult to nd someplace to get tested. See Testing for COVID-
+19 for more information.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can a person test negative and later test positive for COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the CDC-developed viral test, a negative result means that the virus that causes COVID-19 was not found in the
+person’s sample. In the early stages of infection, it is possible the virus will not be detected.
+For COVID-19, a negative test result for a sample collected while a person has symptoms likely means that the COVID-
+19 virus is not causing their current illness.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What kind of test is being used to diagnose if I have COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are actually many tests being used to diagnose COVID-19 that the U.S. Food &amp; Drug Administration (FDA) has
+authorized for use during the current emergency. All of these viral tests identify the virus in samples from the
+respiratory system, such as from nasal or nasopharyngeal swabs. Some tests are conducted at the testing site you
+visit, and results are available to you within minutes. Other tests must be sent to a laboratory to analyze, a process
+that takes 1-2 days once the lab receives your samples. Two tests allow you to collect your own sample at home –
+either a nasal swab  or a saliva sample  – but you will still need to send the sample to a lab for processing.
+Locations and types of testing sites vary depending on where you live (see question: Where can I get tested). Check
+with your testing site to learn which test it uses. You can nd a patient information sheet about each test on the FDA
+website  .
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is antibody testing? And can I be tested using this method?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antibody testing checks a sample of a person’s blood to look for antibodies to SARS-CoV-2, the virus that causes
+COVID-19. These antibodies are produced when someone has been infected, so a positive result from this test
+indicates that person was previously infected with the virus.
+CDC is working with other federal agencies to evaluate the performance of commercially manufactured antibody tests
+that are becoming increasingly available from healthcare providers. This evaluation is expected to be completed in
+early May.
+We do not know yet if the antibodies that result from infection with SARS-CoV-2 can protect someone from reinfection
+with this virus (immunity) or how long antibodies to the virus will protect someone. Scientists are conducting research
+to answer those questions.
+Antibody tests may not be able to tell you if you are currently infected because it typically takes 1 to 3 weeks to
+develop antibodies to SARS-CoV-2. To tell if you are currently infected, you would need a test that identi es the virus in
+samples from your upper respiratory system, such as a nasopharyngeal swab.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If I have recovered from COVID-19, will I be immune to it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC and partners are investigating to determine if you can get sick with COVID-19 more than once. At this time, we are
+not sure if you can become re-infected. Until we know more, continue to take steps to protect yourself and others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who is at higher risk for serious illness from COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19 is a new disease and there is limited information regarding risk factors for severe disease. Based on
+currently available information and clinical expertise, older adults and people of any age who have serious underlying
+medical conditions might be at higher risk for severe illness from COVID-19.
+Based on what we know now, those at high-risk for severe illness from COVID-19 are: People aged 65 years and older
+People who live in a nursing home or long-term care facility, People with chronic lung disease or moderate to severe asthma
+People who have serious heart conditions, People who are immunocompromised
+People with severe obesity (body mass index [BMI] ≥40)
+People with diabetes
+People with chronic kidney disease undergoing dialysis
+People with liver disease
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What should people at higher risk of serious illness with COVID-19 do?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are at higher risk of getting very sick from COVID-19, you should:
+Stock up on supplies
+Take everyday precautions to keep space between yourself and others
+When you go out in public, keep away from others who are sick
+Limit close contact and wash your hands often
+Avoid crowds, cruise travel, and non-essential travel
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How were the underlying conditions for people considered higher risk of serious illness with COVID-19 selected?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This list is based on:
+What we are learning from the outbreak in other countries and in the United States.
+What we know about risk from other respiratory infections, like u.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there any medications I should avoid taking if I have COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently, there is no evidence to show that taking ibuprofen or naproxen can lead to a more severe infection of
+COVID-19.
+People with high blood pressure should take their blood pressure medications, as directed, and work with their
+healthcare provider to make sure that their blood pressure is as well controlled as possible. Any changes to your
+medications should only be made by your healthcare provider.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What about underlying medical conditions that are not included on this list?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on available information, adults aged 65 years and older and people of any age with underlying medical conditions included on this list are at higher risk for severe illness and poorer outcomes from COVID-19. CDC is
+collecting and analyzing data regularly and will update the list when we learn more. People with underlying medical
+conditions not on the list might also be at higher risk and should consult with their healthcare provider if they are
+concerned. We encourage all people, regardless of risk, to:
+Take steps to protect yourself and others.
+Call your healthcare provider if you are sick with a fever, cough, or shortness of breath.
+Follow CDC travel guidelines and the recommendations of your state and local health ocials.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does a well-controlled health condition mean?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generally, well-controlled means that your condition is stable, not life-threatening, and laboratory assessments and
+other ndings are as similar as possible to those without the health condition. You should talk with your healthcare
+provider if you have a question about your health or how your health condition is being managed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does more severe illness mean?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severity typically means how much impact the illness or condition has on your body’s function. You should talk with
+your healthcare provider if you have a question about your health or how your health condition is being managed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are people with disabilities at higher risk?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most people with disabilities are not inherently at higher risk for becoming infected with or having severe illness from
+COVID-19. Some people with physical limitations or other disabilities might be at a higher risk of infection because of
+their underlying medical condition.
+People with certain disabilities might experience higher rates of chronic health conditions that put them at higher
+risk of serious illness and poorer outcomes from COVID-19. Adults with disabilities are three times more likely to
+have heart disease, stroke, diabetes, or cancer than adults without disabilities.
+You should talk with your healthcare provider if you have a question about your health or how your health condition is
+being managed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At this time, we do not think that people with high blood pressure and no other underlying health conditions are more
+likely than others to get severely ill from COVID-19. Although many people who have gotten severely ill from COVID-19
+have high blood pressure, they are often older or have other medical conditions like obesity, diabetes, and serious
+heart conditions that place them at higher risk of severe illness from COVID-19.
+If you have high blood pressure, it’s critically important that you keep your blood pressure under control to lower your
+risk for heart disease and strokes. Take your blood pressure medications as directed, keep a log of your blood
+pressure every day if you are able to take your blood pressure at home, and work with your healthcare team to make
+sure your blood pressure is well controlled. Any changes to your medications should be made in consultation with
+your healthcare team.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am I at risk if I go to a funeral or visitation service for someone who died of COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is currently no known risk associated with being in the same room at a funeral or visitation service with the
+body of someone who died of COVID-19.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am I at risk if I touch someone who died of COVID-19 after they have passed away?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19 is a new disease and we are still learning how it spreads. The virus that causes COVID-19 is thought to
+mainly spread from close contact (i.e., within about 6 feet) with a person who is currently sick with COVID-19. The virus
+likely spreads primarily through respiratory droplets produced when an infected person coughs or sneezes, similar to
+how in uenza and other respiratory infections spread. These droplets can land in the mouths or noses of people who
+are nearby or possibly be inhaled into the lungs. This type of spread is not a concern after death.
+It may be possible that a person can get COVID-19 by touching a surface or object that has the virus on it and then
+touching their own mouth, nose, or possibly their eyes, but this is not thought to be the main way the virus spreads.
+People should consider not touching the body of someone who has died of COVID-19. Older people and people of all
+ages with severe underlying health conditions are at higher risk of developing serious COVID-19 illness. There may be
+less of a chance of the virus spreading from certain types of touching, such as holding the hand or hugging after the
+body has been prepared for viewing. Other activities, such as kissing, washing, and shrouding should be avoided
+before, during, and after the body has been prepared, if possible. If washing the body or shrouding are important
+religious or cultural practices, families are encouraged to work with their community’s cultural and religious leaders
+and funeral home sta on how to reduce their exposure as much as possible. At a minimum, people conducting these
+activities should wear disposable gloves. If splashing of uids is expected, additional personal protective equipment
+(PPE) may be required (such as disposable gown, faceshield or goggles and N-95 respirator).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do funeral home workers need to know about handling decedents who had COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A funeral or visitation service can be held for a person who has died of COVID-19. Funeral home workers should follow
+their routine infection prevention and control precautions when handling a decedent who died of COVID-19. If it is
+necessary to transfer a body to a bag, follow Standard Precautions, including additional personal protective
+equipment (PPE) if splashing of uids is expected. For transporting a body after the body has been bagged, disinfect
+the outside of the bag with a product with EPA-approved emerging viral pathogens claims  expected to be e ective
+against COVID-19 based on data for harder to kill viruses. Follow the manufacturer’s instructions for all cleaning and
+disinfection products (e.g., concentration, application method and contact time, etc.). Wear disposable nitrile gloves
+when handling the body bag.
+Embalming can be conducted. During embalming, follow Standard Precautions including the use of additional PPE if
+splashing is expected (e.g. disposable gown, faceshield or goggles and N95 respirator). Wear appropriate respiratory
+protection if any procedures will generate aerosols or if required for chemicals used in accordance with the
+manufacturer’s label. Wear heavy-duty gloves over nitrile disposable gloves if there is a risk of cuts, puncture wounds,
+or other injuries that break the skin. Additional information on how to safely conduct aerosol-generating procedures is
+in the CDC’s Postmortem Guidance. Cleaning should be conducted in accordance with manufacturer’s instructions.
+Products with EPA-approved emerging viral pathogens claims  are expected to be e ective against COVID-19 based
+on data for harder to kill viruses. Follow the manufacturer’s instructions for all cleaning and disinfection products (e.g.,
+concentration, application method and contact time).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What should I do if my family member died from COVID-19 while overseas?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a US citizen dies outside the United States, the deceased person’s next of kin or legal representative should
+notify US consular o cials at the Department of State. Consular personnel are available 24 hours a day, 7 days a week,
+to provide assistance to US citizens for overseas emergencies. If a family member, domestic partner, or legal
+representative is in a di erent country from the deceased person, he or she should call the Department of State’s
+O ce of Overseas Citizens Services in Washington, DC, from 8 am to 5 pm Eastern time, Monday through Friday, at
+888-407-4747 (toll-free) or 202-501-4444. For emergency assistance after working hours or on weekends and holidays,
+call the Department of State switchboard at 202-647-4000 and ask to speak with the Overseas Citizens Services duty
+o cer. In addition, the US embassy  closest to or in the country where the US citizen died can provide assistance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My family member died from COVID-19 while overseas. What are the requirements for returning the body to the
+United States?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC does not require an autopsy before the remains of a person who died overseas are returned to the United States.
+Depending on the circumstances surrounding the death, some countries may require an autopsy. Sources of support
+to the family include the local consulate or embassy, travel insurance provider, tour operator, faith-based and aid
+organizations, and the deceased’s employer. There likely will need to be an o cial identi cation of the body and
+o cial documents issued by the consular o ce.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is CDC doing about COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC is working with other federal partners in a whole-of-government response. This is an emerging, rapidly evolving
+situation and CDC will continue to provide updated information as it becomes available. CDC works 24/7 to protect
+people’s health. More information about CDC’s response to COVID-19 is available online.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the di erence between cleaning and disinfecting?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaning with soap and water removes germs, dirt, and impurities from surfaces. It lowers the risk of spreading
+infection. Disinfecting kills germs on surfaces. By killing germs on a surface after cleaning, it can further lower the risk
+of spreading infection.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it safe to vacuum in a school, business, or community facility after someone with suspected or conCOVID-19 has been present?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The risk of transmitting or spreading SARS-CoV-2, the virus that causes COVID-19, during vacuuming is unknown. At
+this time, there are no reported cases of COVID-19 associated with vacuuming. If vacuuming is necessary or required
+in a school, business, or community facility that was used by a person with suspected or con rmed COVID-19, rst
+follow the CDC recommendations for Cleaning and Disinfection for Community Facilities that apply, which includes a
+wait time of 24 hours, or as long as practical.
+After cleaning and disinfection, the following recommendations may help reduce the risk to workers and other
+individuals when vacuuming:
+Consider removing smaller rugs or carpets from the area completely, so there is less that needs to be vacuumed.
+Use a vacuum equipped with a high-e ciency particulate air (HEPA) lter, if available.
+Do not vacuum a room or space that has people in it. Wait until the room or space is empty to vacuum, such as at
+night, for common spaces, or during the day for private rooms.
+Consider temporarily turning o room fans and the central HVAC system that services the room or space, so that
+particles that escape from vacuuming will not circulate throughout the facility.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is routine cleaning? How frequently should facilities be cleaned to reduce the potential spread of COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Routine cleaning is the everyday cleaning practices that businesses and communities normally use to maintain a
+healthy environment. Surfaces frequently touched by multiple people, such as door handles, bathroom surfaces, and
+handrails should be cleaned with soap and water or another detergent at least daily when facilities are in use More handrails, should be cleaned with soap and water or another detergent at least daily when facilities are in use. More
+frequent cleaning and disinfection may be required based on level of use. For example, certain surfaces and objects in
+public spaces, such as shopping carts and point of sale keypads, should be cleaned and disinfected before each use.
+Cleaning removes dirt and impurities, including germs, from surfaces. Cleaning alone does not kill germs, but it
+reduces the number of germs on a surface.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is cleaning alone e ective against the virus that causes COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaning does not kill germs, but by removing them, it lowers their numbers and the risk of spreading infection. If a
+surface may have gotten the virus on it from a person with or suspected to have COVID-19, the surface should be
+cleaned and disinfected. Disinfecting kills germs on surfaces.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who should clean and disinfect community spaces?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular cleaning sta can clean and disinfect community spaces. Cleaning sta should be trained on appropriate use
+of cleaning and disinfection chemicals and provided with the personal protective equipment (PPE) required for the
+chemicals used.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How long do companies need to close for disinfection after an exposure? How long before other workers can
+come back to work?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Companies do not necessarily need to close after a person with con rmed or suspected COVID-19 has been in a
+company facility. The area(s) used or visited by the ill person should be closed for 24 hours or as long as possible.
+Open outside doors and windows as much as possible ensuring that doing so does not pose a safety risk to children
+using the facility (i.e. make sure that children are not able to enter the closed o area through any windows or doors).
+and use ventilating fans to increase air circulation in the area. Once the area has been appropriately disinfected, it can
+be opened for use. Workers without close contact with the person with con rmed or suspected COVID-19 can return
+to work immediately after disinfection is completed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How e ective are alternative disinfection methods, such as ultrasonic waves, high intensity UV radiation, and LED
+blue light?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The e cacy of these disinfection methods against the virus that causes COVID-19 is not known. EPA only recommends
+use of the surface disinfectants identi ed on List N  against the virus that causes COVID-19. EPA does not routinely
+review the safety or e cacy of pesticidal devices, such as UV lights, LED lights, or ultrasonic devices. Therefore, EPA
+cannot con rm whether, or under what circumstances, such products might be e ective against the spread of COVID-
+19.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should outdoor playgrounds, like those at schools or in parks, be cleaned and disinfected to prevent COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outdoor areas generally require normal routine cleaning and do not require disinfection. Spraying disinfectant on
+outdoor playgrounds is not an e cient use of disinfectant supplies and has not been proven to reduce the risk of
+COVID-19 to the public. You should maintain existing cleaning and hygiene practices for outdoor areas. If practical,
+high touch surfaces made of plastic or metal, such as grab bars and railings, should be cleaned routinely. Cleaning and
+disinfection of wooden surfaces (e.g., play structures, benches, tables) or groundcovers (e.g., mulch, sand) is not
+recommended.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can sanitizing tunnels be used at building entrances or exits to prevent the spread of COVID-19?
+</t>
+  </si>
+  <si>
+    <t>CDC does not recommend disinfection of sidewalks or roads. Spraying disinfectant on sidewalks and roads is not an
+e cient use of disinfectant supplies and has not been proven to reduce the risk of COVID-19 to the public. The risk of
+spreading the virus that causes COVID-19 from these surfaces is very low and disinfection is not e ective on these
+surfaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I get COVID-19 from my pets or other animals?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At this time, there is no evidence that animals play a signi cant role in spreading the virus that causes COVID-19.
+Based on the limited information available to date, the risk of animals spreading COVID-19 to people is considered to
+be low. A small number of pets have been reported to be infected with the virus that causes COVID-19, mostly after
+contact with people with COVID-19.
+Pets have other types of coronaviruses that can make them sick, like canine and feline coronaviruses. These other
+coronaviruses cannot infect people and are not related to the current COVID-19 outbreak.
+However, since animals can spread other diseases to people, it’s always a good idea to practice healthy habits around
+pets and other animals, such as washing your hands and maintaining good hygiene. For more information on the
+many bene ts of pet ownership, as well as staying safe and healthy around animals including pets, livestock, and
+wildlife, visit CDC’s Healthy Pets, Healthy People website.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do I need to get my pet tested for COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. At this time, routine testing of animals for COVID-19 is not recommended.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can animals carry the virus that causes COVID-19 on their skin or fur?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although we know certain bacteria and fungi can be carried on fur and hair, there is no evidence that viruses,
+including the virus that causes COVID-19, can spread to people from the skin, fur, or hair of pets.
+However, because animals can sometimes carry other germs that can make people sick, it’s always a good idea to
+practice healthy habits around pets and other animals, including washing hands before and after interacting with
+them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should I avoid contact with pets or other animals if I am sick with COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are still learning about this virus, but it appears that it can spread from people to animals in some situations. Until
+we learn more about this new coronavirus, you should restrict contact with pets and other animals while you are sick
+with COVID-19, just like you would with people. When possible, have another member of your household care for your
+animals while you are sick. If you are sick with COVID-19, avoid contact with your pet, including
+Petting
+Snuggling
+Being kissed or licked
+Sharing food or bedding
+If you must care for your pet or be around animals while you are sick, wash your hands before and after you interact
+with pets and wear a cloth face covering.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What animals can get COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We don’t know for sure which animals can be infected with the virus that causes COVID-19. CDC is aware of a small
+number of pets, including dogs and cats, reported to be infected with the virus that causes COVID-19, mostly after
+close contact with people with COVID-19. A tiger at a zoo in New York has also tested positive for the virus. Recent research shows that ferrets, cats, and golden Syrian hamsters can be experimentally infected with the virus
+and can spread the infection to other animals of the same species in laboratory settings. Pigs, chickens, and ducks did
+not become infected or spread the infection based on results from these studies. Data from one study suggested dogs
+are not as likely to become infected with the virus as cats and ferrets. These ndings were based on a small number of
+animals, and do not show whether animals can spread infection to people.
+At this time, there is no evidence that animals play a signi cant role in spreading the virus that causes COVID-19.
+Based on the limited information available to date, the risk of animals spreading COVID-19 to people is considered to
+be low. Further studies are needed to understand if and how di erent animals could be a ected by the virus that
+causes COVID 19 and the role animals may play in the spread of COVID 19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should I worry about my pet cat?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are still learning about this virus and how it spreads, but it appears it can spread from humans to animals in some
+situations. CDC is aware of a small number of pets, including cats, reported to be infected with the virus that causes
+COVID-19, mostly after close contact with people with COVID-19. Most of these animals had contact with a person with
+COVID-19. A tiger at a New York zoo has also tested positive for the virus that causes COVID-19.
+At this time, there is no evidence that animals play a signi cant role in spreading the virus that causes COVID-19.
+Based on the limited data available, the risk of animals spreading COVID-19 to people is considered to be low. The
+virus that causes COVID-19 spreads mainly from person to person, typically through respiratory droplets from
+coughing, sneezing, or talking.
+People sick with COVID-19 should isolate themselves from other people and animals, including pets, during their
+illness until we know more about how this virus a ects animals. If you must care for your pet or be around animals
+while you are sick, wear a cloth face covering and wash your hands before and after you interact with pets.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I walk my dog?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking a dog is important for both animal and human health and well-being. Walk dogs on a leash, maintaining at
+least 6 feet (2 meters) from other people and animals, do not gather in groups, and stay out of crowded places and
+avoid mass gatherings. Do not go to dog parks or public places where a large number of people and dogs gather. To
+help maintain social distancing, do not let other people pet your dog when you are out for a walk.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I take my dog to daycare or a groomer?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Until we know more about how this virus a ects animals, CDC encourages pet owners to treat pets as you would other
+human family members to protect them from possible infection. This means limiting contact between pets and people
+or animals outside the household as much as possible and avoiding places where large numbers of animals and
+people gather.
+Some areas are allowing groomers and boarding facilities such as dog daycares to open. If you must take your pet to a
+groomer or boarding facility, follow any protocols put into place at the facility, such as wearing a cloth face
+covering and maintaining at least 6 feet of space between yourself and others if possible.
+Limit pet items brought from home to the groomer or boarding facility, and disinfect any objects that are taken into a
+facility and returned home (such as leashes, bowls, and toys). Use an EPA-registered disinfectant  to clean items and
+rinse thoroughly with clean water afterwards. Do not wipe or bathe your pet with chemical disinfectants, alcohol,
+hydrogen peroxide, or any other products not approved for animal use.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What should I do if my pet gets sick and I think it’s COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a small number of animals around the world reported to be infected with the virus that causes COVID-19,
+mostly after having contact with a person with COVID-19. Talk to your veterinarian about any health concerns you
+have about your pets.
+If your pet gets sick after contact with a person with COVID-19, do not take your pet to the veterinary clinic yourself.
+Call your veterinarian and let them know the pet was around a person with COVID-19. Some veterinarians may o er
+telemedicine consultations or other plans for seeing sick pets. Your veterinarian can evaluate your pet and determine
+the next steps for your pet’s treatment and care.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why are animals being tested when many people can’t get tested?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animals are only being tested in very rare circumstances. Routine testing of animals is not recommended at this time,
+and any tests done on animals are done on a case by case basis. For example, if the pet of a COVID-19 patient has a
+new, concerning illness with symptoms similar to those of COVID-19, the animal’s veterinarian might consult with
+public health and animal health o cials to determine if testing is needed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are pets from a shelter safe to adopt?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on the limited information available to date, the risk of animals spreading COVID-19 to people is considered to
+be low. There is no reason to think that any animals, including shelter pets, play a signi cant role in spreading the
+virus that causes COVID-19.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What about imported animals or animal products?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC does not have any evidence to suggest that imported animals or animal products pose a risk for spreading
+COVID-19 in the United States. This is a rapidly evolving situation and information will be updated as it becomes
+available. CDC, the U. S. Department of Agriculture (USDA), and the U.S. Fish and Wildlife Service (FWS) play distinct but
+complementary roles in regulating the importation of live animals and animal products into the United States.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I travel to the United States with dogs or import dogs into the United States during the COVID-19 outbreak?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please refer to CDC’s requirements for bringing a dog to the United States. The current requirements for rabies
+vaccination apply to dogs imported from high-risk countries for rabies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What precautions should be taken for animals that have recently been imported from outside the United States
+(for example, by shelters, rescues, or as personal pets)?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imported animals will need to meet CDC and USDA  requirements for entering the United States. At this time, there
+is no evidence that companion animals, including pets and service animals, can spread the virus that causes COVID-19.
+As with any animal introduced to a new environment, animals recently imported should be observed daily for signs of
+illness. If an animal becomes ill, the animal should be examined by a veterinarian. Call your local veterinary
+clinic before bringing the animal into the clinic and let them know that the animal was recently imported from another
+country.
+This is a rapidly evolving situation and information will be updated as it becomes available.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is community mitigation?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community mitigation activities are actions that people and communities can take to slow the spread of infectious
+diseases, including COVID-19. Community mitigation is especially important before a vaccine or drug becomes widely
+available.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are community mitigation actions for COVID-19?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some community mitigation actions may include:
+Washing hands often
+Avoiding close contact with people who are sick, and practicing social distancing
+Covering mouth and nose with a cloth face cover when around others
+Covering coughs and sneezes
+Cleaning and disinfecting frequently touched surfaces daily
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who is involved in community mitigation actions?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individuals, communities, schools, businesses and healthcare organizations all have a role to play in community
+mitigation. Policies*, which include limits on large gatherings, restrictions on businesses, and school closures are often
+needed to fully put in place community mitigation strategies.
+Each community is unique. Because some actions can be very disruptive to daily life, mitigation activities will be
+di erent depending on how much disease has spread within the community, what the community population is like,
+and the ability to take these actions at the local level. To identify appropriate activities, all parts of a community that
+might be impacted need to be considered, including populations most vulnerable to severe illness, and those who
+might be more impacted socially or economically. When selecting mitigation activities, states and communities need to
+consider the spread of disease locally, characteristics of the people who live in the community (for example, age
+groups, languages spoken, overall health status), and the kind of public health resources and healthcare systems (like
+hospitals) that are available in the community. State and local o cials may need to adjust community mitigation
+activities and immediately take steps to scale them up or down depending on the changing local situation.
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -382,18 +1586,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri (Hoofdtekst)"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -419,32 +1617,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -760,499 +1949,954 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6678A23-C73C-894C-B40D-72507169EEC1}">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="111.796875" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="11.19921875" style="2"/>
+    <col min="1" max="1" width="75.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="111.796875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="11.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60.6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75.599999999999994">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="75.599999999999994">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="90.6">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="46.8">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75.599999999999994">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="75.599999999999994">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="90.6">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="120.6">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="120.6">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="75.599999999999994">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="140.4">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="124.8">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="135.6">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45.6">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="78">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45.6">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="75.599999999999994">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="60.6">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45.6">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30.6">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45.6">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30.6">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="156">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="270.60000000000002">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="93.6">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="105.6">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="195.6">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="9"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="9"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="9"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="9"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="9"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="9"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="9"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="9"/>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="9"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="B49" s="9"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="B50" s="9"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="B51" s="9"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="B52" s="9"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="B53" s="9"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="B54" s="9"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="B55" s="9"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="B56" s="9"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="B57" s="9"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="B58" s="9"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="B59" s="9"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="B60" s="9"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="9"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="B62" s="9"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="B63" s="9"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="10"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="10"/>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="9"/>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="9"/>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="9"/>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="9"/>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="9"/>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="9"/>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="9"/>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="11"/>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="11"/>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="11"/>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="11"/>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="11"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="B81" s="11"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="12"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="7"/>
-      <c r="B83" s="11"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="7"/>
-      <c r="B84" s="11"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="7"/>
-      <c r="B85" s="11"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="7"/>
-      <c r="B86" s="11"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="6"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="10"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="B96" s="10"/>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="10"/>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="10"/>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="10"/>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="10"/>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="10"/>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="10"/>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="10"/>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="10"/>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="10"/>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="10"/>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="10"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="10"/>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="10"/>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="10"/>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="10"/>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="10"/>
+    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
